--- a/brother_productos/media/HOT SALE '18 - unificado.xlsx
+++ b/brother_productos/media/HOT SALE '18 - unificado.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8170" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8170"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;H" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
   <si>
     <t>REGULAR</t>
   </si>
@@ -133,9 +133,6 @@
     <t>https://www.staples.com.ar/new_product.asp?sku=MSCBHCM300&amp;</t>
   </si>
   <si>
-    <t>bazar avenida</t>
-  </si>
-  <si>
     <t>http://www.e-teorema.com/producto.php/801089/plotter_brother_scanncut_cm300</t>
   </si>
   <si>
@@ -169,15 +166,9 @@
     <t>ELIT</t>
   </si>
   <si>
-    <t>http://elit.com.ar/</t>
-  </si>
-  <si>
     <t>FREE</t>
   </si>
   <si>
-    <t>http://www.free-online.com.ar/</t>
-  </si>
-  <si>
     <t>FALABELLA</t>
   </si>
   <si>
@@ -199,7 +190,115 @@
     <t>https://articulo.mercadolibre.com.ar/MLA-643402878-scanner-portatil-brother-a4-color-ds-620-_JM</t>
   </si>
   <si>
-    <t>DS621</t>
+    <t>DCP T500W</t>
+  </si>
+  <si>
+    <t>JUMBO</t>
+  </si>
+  <si>
+    <t>NALDO</t>
+  </si>
+  <si>
+    <t>PARDO</t>
+  </si>
+  <si>
+    <t>WALMART</t>
+  </si>
+  <si>
+    <t>CETROGAR</t>
+  </si>
+  <si>
+    <t>COTO</t>
+  </si>
+  <si>
+    <t>DCP T300</t>
+  </si>
+  <si>
+    <t>https://www.falabella.com.ar/falabella-ar/product/2652068/Multifuncion-DCPT500W/2652068</t>
+  </si>
+  <si>
+    <t>https://www.jumbo.com.ar/Comprar/Home.aspx?#_atCategory=false&amp;_atGrilla=true&amp;_query=DCPT500W</t>
+  </si>
+  <si>
+    <t>http://www.naldo.com.ar/impresora-dcpt500w-multifuncion-inktank.html</t>
+  </si>
+  <si>
+    <t>https://www.pardo.com.ar/p/informatica/impresoras/impresora-multifuncion-brother-dcpt500w/8904</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com.ar/impresora-sistema-continuo-brother-dcpt500/p</t>
+  </si>
+  <si>
+    <t>https://www.cetrogar.com.ar/impresora-brother-multifuncion-inktank-dcpt500w.html</t>
+  </si>
+  <si>
+    <t>TIENDA OFICIAL</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.ar/MLA-636454238-impresora-multifuncion-brother-dcp-t500w-sist-continuo-_JM</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.ar/MLA-629898599-impresora-multifuncion-brother-dcp-t300-sistema-continuo-_JM</t>
+  </si>
+  <si>
+    <t>http://www.e-teorema.com/producto.php/337650/multifuncion_inkjet_brother_inktank_dcp-t500w</t>
+  </si>
+  <si>
+    <t>https://www.cotodigital3.com.ar/sitios/cdigi/producto/-impresora-multifuncion-brother-dcp-t500w/_/A-00472553-00472553-200</t>
+  </si>
+  <si>
+    <t>Megatone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.elit.com.ar/productos/imagen/escaner/escaner-portatil-8ppm-600x600-dpi-comp-win-mac-lin.html </t>
+  </si>
+  <si>
+    <t>http://www.free-online.com.ar/articulo/49009</t>
+  </si>
+  <si>
+    <t>FRAVEGA</t>
+  </si>
+  <si>
+    <t>RIBEIRO</t>
+  </si>
+  <si>
+    <t>GARBARINO</t>
+  </si>
+  <si>
+    <t>MUSIMUNDO</t>
+  </si>
+  <si>
+    <t>https://www.fravega.com/impresora-multifuncion-brother-dcp-t500w-362752/p?djazz_ref=362739&amp;djazz_pos=1&amp;djazz_srv=related</t>
+  </si>
+  <si>
+    <t>https://www.ribeiro.com.ar/producto/impresora-brother-dcp-t500w-negro/_/A-038030016000-038030016000_s/</t>
+  </si>
+  <si>
+    <t>https://www.compumundo.com.ar/producto/impresora-multifuncion-brother-dcp-t500w/c043027f5e</t>
+  </si>
+  <si>
+    <t>https://www.garbarino.com/producto/impresora-multifuncion-brother-dcp-t500w/d22275ee4a</t>
+  </si>
+  <si>
+    <t>https://www.staples.com.ar/new_product.asp?sku=IMPBHDCPT500W&amp;</t>
+  </si>
+  <si>
+    <t>https://www.musimundo.com/1625~computacion/1635~impresoras/1638~multifuncion/producto~121048~C170619-E131221-impresora-multifuncion--dcpt500w</t>
+  </si>
+  <si>
+    <t>https://www.fravega.com/impresora-multifuncion-brother-dcp-t300-362739/p</t>
+  </si>
+  <si>
+    <t>https://www.ribeiro.com.ar/producto/impresora-brother-dcp-t300-negro/_/A-038030015000-038030015000_s/</t>
+  </si>
+  <si>
+    <t>https://www.compumundo.com.ar/producto/impresora-multifuncion-brother-dcp-t300/96c98d3e0b</t>
+  </si>
+  <si>
+    <t>https://www.garbarino.com/producto/impresora-multifuncion-brother-dcp-t300/3db30128f1</t>
+  </si>
+  <si>
+    <t>https://www.staples.com.ar/new_product.asp?sku=IMPBHDCPT300&amp;</t>
   </si>
 </sst>
 </file>
@@ -210,7 +309,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,8 +355,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +390,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +466,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -379,6 +490,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,6 +502,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -397,15 +529,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,17 +565,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -777,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -789,7 +919,7 @@
     <col min="4" max="4" width="9.08984375" customWidth="1"/>
     <col min="5" max="5" width="9.7265625" customWidth="1"/>
     <col min="6" max="6" width="8.08984375" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" customWidth="1"/>
+    <col min="15" max="15" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" x14ac:dyDescent="0.35">
@@ -809,17 +939,17 @@
       <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="20"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
@@ -840,17 +970,17 @@
       <c r="F2" s="10">
         <v>0.25</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
@@ -871,17 +1001,17 @@
       <c r="F3" s="10">
         <v>0.25</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -902,17 +1032,17 @@
       <c r="F4" s="10">
         <v>0.25</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -933,17 +1063,17 @@
       <c r="F5" s="10">
         <v>0.25</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="23"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
@@ -964,17 +1094,17 @@
       <c r="F6" s="10">
         <v>0.25</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="21"/>
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
@@ -995,17 +1125,17 @@
       <c r="F7" s="10">
         <v>0.25</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
@@ -1026,17 +1156,17 @@
       <c r="F8" s="10">
         <v>0.25</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="23"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
@@ -1057,17 +1187,17 @@
       <c r="F9" s="10">
         <v>0.25</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="23"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
@@ -1088,17 +1218,17 @@
       <c r="F10" s="10">
         <v>0.25</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="23"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
@@ -1119,17 +1249,17 @@
       <c r="F11" s="10">
         <v>0.25</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="23"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
     </row>
     <row r="12" spans="1:98" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
@@ -1138,7 +1268,7 @@
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="6">
@@ -1150,17 +1280,17 @@
       <c r="F12" s="10">
         <v>0.25</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:98" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
@@ -1169,7 +1299,7 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="6">
@@ -1181,17 +1311,17 @@
       <c r="F13" s="10">
         <v>0.25</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="23"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
     </row>
     <row r="14" spans="1:98" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
@@ -1212,17 +1342,17 @@
       <c r="F14" s="10">
         <v>0.33</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="24"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
@@ -1243,46 +1373,46 @@
       <c r="F15" s="10">
         <v>0.33</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="23"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
     </row>
     <row r="16" spans="1:98" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="44">
         <v>11999</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="44">
         <v>7999</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="45">
         <v>0.33</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="23"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="48"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1375,7 +1505,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="6">
         <v>11999</v>
@@ -1386,17 +1516,17 @@
       <c r="F17" s="10">
         <v>0.33</v>
       </c>
-      <c r="G17" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="23"/>
+      <c r="G17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
@@ -1413,15 +1543,15 @@
       <c r="F18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
@@ -1438,25 +1568,18 @@
       <c r="F19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="17"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G19:O19"/>
-    <mergeCell ref="G13:O13"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="G15:O15"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="G18:O18"/>
     <mergeCell ref="G12:O12"/>
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="G2:O2"/>
@@ -1469,6 +1592,13 @@
     <mergeCell ref="G9:O9"/>
     <mergeCell ref="G10:O10"/>
     <mergeCell ref="G11:O11"/>
+    <mergeCell ref="G19:O19"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="G15:O15"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="G18:O18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
@@ -1494,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1506,6 +1636,7 @@
     <col min="2" max="2" width="14.1796875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="6" max="6" width="7.54296875" customWidth="1"/>
+    <col min="15" max="15" width="38.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -1525,17 +1656,17 @@
       <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
@@ -1544,32 +1675,32 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="44">
+        <v>3999</v>
+      </c>
+      <c r="E2" s="44">
+        <v>2999</v>
+      </c>
+      <c r="F2" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="G2" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="6">
-        <v>3999</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2999</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -1579,10 +1710,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="6">
         <v>3999</v>
@@ -1593,17 +1724,17 @@
       <c r="F3" s="10">
         <v>0.25</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
+      <c r="G3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -1613,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="6">
         <v>3999</v>
@@ -1627,17 +1758,17 @@
       <c r="F4" s="10">
         <v>0.25</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
+      <c r="G4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
@@ -1647,9 +1778,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="6">
@@ -1661,17 +1792,17 @@
       <c r="F5" s="10">
         <v>0.25</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="23"/>
+      <c r="G5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -1681,10 +1812,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="6">
         <v>3999</v>
@@ -1695,17 +1826,17 @@
       <c r="F6" s="10">
         <v>0.25</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23"/>
+      <c r="G6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="21"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -1715,10 +1846,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="6">
         <v>3999</v>
@@ -1729,17 +1860,17 @@
       <c r="F7" s="10">
         <v>0.25</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
+      <c r="G7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -1749,7 +1880,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1763,17 +1894,17 @@
       <c r="F8" s="10">
         <v>0.25</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="23"/>
+      <c r="G8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -1783,7 +1914,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1797,17 +1928,17 @@
       <c r="F9" s="10">
         <v>0.25</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="23"/>
+      <c r="G9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -1816,20 +1947,32 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="23"/>
+      <c r="B10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5659</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4659</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
@@ -1838,20 +1981,32 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="23"/>
+      <c r="B11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5659</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4659</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -1860,20 +2015,32 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
+      <c r="B12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5659</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4659</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -1882,20 +2049,32 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="23"/>
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5659</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4659</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
@@ -1904,20 +2083,32 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="23"/>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5659</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4659</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="21"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
@@ -1926,20 +2117,32 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="23"/>
+      <c r="B15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5659</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4659</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -1948,20 +2151,32 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="29"/>
+      <c r="B16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5659</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4659</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="33"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -1970,20 +2185,32 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="23"/>
+      <c r="B17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5659</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4659</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -1992,20 +2219,32 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
+      <c r="B18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5659</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4659</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -2014,33 +2253,390 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="17"/>
+      <c r="B19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5659</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4659</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="18"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5659</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4659</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5659</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4659</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="18"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5659</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4659</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5659</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4659</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="18"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="6">
+        <v>5659</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4659</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="18"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4999</v>
+      </c>
+      <c r="E25" s="6">
+        <v>3999</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="18"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="6">
+        <v>4999</v>
+      </c>
+      <c r="E26" s="6">
+        <v>3999</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="18"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4999</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3999</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="18"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="6">
+        <v>4999</v>
+      </c>
+      <c r="E28" s="6">
+        <v>3999</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="6">
+        <v>4999</v>
+      </c>
+      <c r="E29" s="6">
+        <v>3999</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4999</v>
+      </c>
+      <c r="E30" s="6">
+        <v>3999</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="G19:O19"/>
-    <mergeCell ref="G13:O13"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="G15:O15"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="G18:O18"/>
+  <mergeCells count="30">
+    <mergeCell ref="G30:O30"/>
+    <mergeCell ref="G25:O25"/>
+    <mergeCell ref="G26:O26"/>
+    <mergeCell ref="G27:O27"/>
+    <mergeCell ref="G28:O28"/>
+    <mergeCell ref="G29:O29"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="G21:O21"/>
+    <mergeCell ref="G22:O22"/>
+    <mergeCell ref="G23:O23"/>
+    <mergeCell ref="G24:O24"/>
     <mergeCell ref="G12:O12"/>
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="G2:O2"/>
@@ -2053,6 +2649,13 @@
     <mergeCell ref="G9:O9"/>
     <mergeCell ref="G10:O10"/>
     <mergeCell ref="G11:O11"/>
+    <mergeCell ref="G19:O19"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="G15:O15"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="G18:O18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1"/>
@@ -2063,8 +2666,30 @@
     <hyperlink ref="G4" r:id="rId6"/>
     <hyperlink ref="G2" r:id="rId7"/>
     <hyperlink ref="G5" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="G11" r:id="rId10" location="_atCategory=false&amp;_atGrilla=true&amp;_query=DCPT500W"/>
+    <hyperlink ref="G12" r:id="rId11"/>
+    <hyperlink ref="G14" r:id="rId12"/>
+    <hyperlink ref="G15" r:id="rId13"/>
+    <hyperlink ref="G16" r:id="rId14"/>
+    <hyperlink ref="G18" r:id="rId15"/>
+    <hyperlink ref="G13" r:id="rId16"/>
+    <hyperlink ref="G17" r:id="rId17"/>
+    <hyperlink ref="G19" r:id="rId18"/>
+    <hyperlink ref="G20" r:id="rId19"/>
+    <hyperlink ref="G21" r:id="rId20"/>
+    <hyperlink ref="G22" r:id="rId21"/>
+    <hyperlink ref="G23" r:id="rId22"/>
+    <hyperlink ref="G24" r:id="rId23"/>
+    <hyperlink ref="G25" r:id="rId24"/>
+    <hyperlink ref="G26" r:id="rId25"/>
+    <hyperlink ref="G27" r:id="rId26"/>
+    <hyperlink ref="G28" r:id="rId27"/>
+    <hyperlink ref="G29" r:id="rId28"/>
+    <hyperlink ref="G30" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -2072,7 +2697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2102,17 +2727,17 @@
       <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
@@ -2122,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2136,17 +2761,17 @@
       <c r="F2" s="10">
         <v>0.25</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
+      <c r="G2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -2156,10 +2781,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="6">
         <v>4059</v>
@@ -2170,17 +2795,17 @@
       <c r="F3" s="10">
         <v>0.25</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
+      <c r="G3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -2190,9 +2815,9 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="6">
@@ -2204,17 +2829,17 @@
       <c r="F4" s="10">
         <v>0.25</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
+      <c r="G4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
@@ -2228,15 +2853,15 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="23"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -2250,15 +2875,15 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="21"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -2272,15 +2897,15 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -2294,15 +2919,15 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="23"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -2316,15 +2941,15 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="23"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -2338,15 +2963,15 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="23"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
@@ -2360,15 +2985,15 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="23"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -2382,15 +3007,15 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -2404,15 +3029,15 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="23"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
@@ -2426,15 +3051,15 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="23"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="21"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
@@ -2448,15 +3073,15 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="23"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -2470,15 +3095,15 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="29"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="33"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -2492,15 +3117,15 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="23"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -2514,15 +3139,15 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -2536,15 +3161,15 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="17"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="18"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
@@ -2568,13 +3193,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G19:O19"/>
-    <mergeCell ref="G13:O13"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="G15:O15"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="G18:O18"/>
     <mergeCell ref="G12:O12"/>
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="G2:O2"/>
@@ -2587,6 +3205,13 @@
     <mergeCell ref="G9:O9"/>
     <mergeCell ref="G10:O10"/>
     <mergeCell ref="G11:O11"/>
+    <mergeCell ref="G19:O19"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="G15:O15"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="G18:O18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
